--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,21 +40,18 @@
     <t>name</t>
   </si>
   <si>
-    <t>kills</t>
-  </si>
-  <si>
     <t>killed</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
@@ -64,139 +61,136 @@
     <t>forced</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>positive</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>care</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>increase</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -554,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +556,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,10 +620,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,16 +638,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -673,13 +667,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,19 +685,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -723,13 +717,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +735,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -773,13 +767,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +817,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.96</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.9090909090909091</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +867,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8235294117647058</v>
+        <v>0.6198630136986302</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.9</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +917,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7142857142857143</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C9">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8823529411764706</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -973,13 +967,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6363636363636364</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8703703703703703</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,13 +1017,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4666666666666667</v>
+        <v>0.1705426356589147</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>428</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.8571428571428571</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L11">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="M11">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,13 +1067,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3333333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1091,475 +1085,331 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="L12">
+        <v>46</v>
+      </c>
+      <c r="M12">
+        <v>46</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13">
+        <v>0.78125</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13">
+        <v>100</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L14">
+        <v>14</v>
+      </c>
+      <c r="M14">
+        <v>14</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="L15">
+        <v>17</v>
+      </c>
+      <c r="M15">
+        <v>17</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="L16">
+        <v>91</v>
+      </c>
+      <c r="M16">
+        <v>91</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L17">
+        <v>20</v>
+      </c>
+      <c r="M17">
+        <v>20</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K12">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L12">
-        <v>23</v>
-      </c>
-      <c r="M12">
-        <v>23</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C13">
-        <v>9</v>
-      </c>
-      <c r="D13">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>18</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="K18">
+        <v>0.7394366197183099</v>
+      </c>
+      <c r="L18">
+        <v>105</v>
+      </c>
+      <c r="M18">
+        <v>105</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K13">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="L13">
-        <v>11</v>
-      </c>
-      <c r="M13">
-        <v>11</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.3133047210300429</v>
-      </c>
-      <c r="C14">
-        <v>73</v>
-      </c>
-      <c r="D14">
-        <v>73</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>160</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="K19">
+        <v>0.7254901960784313</v>
+      </c>
+      <c r="L19">
+        <v>37</v>
+      </c>
+      <c r="M19">
+        <v>37</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K14">
-        <v>0.803921568627451</v>
-      </c>
-      <c r="L14">
-        <v>41</v>
-      </c>
-      <c r="M14">
-        <v>41</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
+      <c r="K20">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L20">
+        <v>26</v>
+      </c>
+      <c r="M20">
+        <v>26</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.25</v>
-      </c>
-      <c r="C15">
-        <v>7</v>
-      </c>
-      <c r="D15">
-        <v>7</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>21</v>
-      </c>
-      <c r="J15" s="1" t="s">
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K15">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L15">
-        <v>20</v>
-      </c>
-      <c r="M15">
-        <v>20</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="C16">
-        <v>19</v>
-      </c>
-      <c r="D16">
-        <v>19</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>67</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="K21">
+        <v>0.7</v>
+      </c>
+      <c r="L21">
+        <v>112</v>
+      </c>
+      <c r="M21">
+        <v>112</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K16">
-        <v>0.7413793103448276</v>
-      </c>
-      <c r="L16">
-        <v>43</v>
-      </c>
-      <c r="M16">
-        <v>43</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.15</v>
-      </c>
-      <c r="C17">
-        <v>12</v>
-      </c>
-      <c r="D17">
-        <v>12</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>68</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="K22">
+        <v>0.6792452830188679</v>
+      </c>
+      <c r="L22">
+        <v>72</v>
+      </c>
+      <c r="M22">
+        <v>72</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K17">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L17">
-        <v>21</v>
-      </c>
-      <c r="M17">
-        <v>21</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>100</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="K23">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="L23">
+        <v>39</v>
+      </c>
+      <c r="M23">
+        <v>39</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K18">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L18">
-        <v>12</v>
-      </c>
-      <c r="M18">
-        <v>12</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="J19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19">
-        <v>0.6986301369863014</v>
-      </c>
-      <c r="L19">
-        <v>51</v>
-      </c>
-      <c r="M19">
-        <v>51</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L20">
-        <v>27</v>
-      </c>
-      <c r="M20">
-        <v>27</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21">
-        <v>0.68</v>
-      </c>
-      <c r="L21">
-        <v>17</v>
-      </c>
-      <c r="M21">
-        <v>17</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="L22">
-        <v>11</v>
-      </c>
-      <c r="M22">
-        <v>11</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L23">
+      <c r="K24">
+        <v>0.6086956521739131</v>
+      </c>
+      <c r="L24">
         <v>14</v>
       </c>
-      <c r="M23">
+      <c r="M24">
         <v>14</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24">
-        <v>0.625</v>
-      </c>
-      <c r="L24">
-        <v>15</v>
-      </c>
-      <c r="M24">
-        <v>15</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1574,168 +1424,168 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25">
+        <v>0.6</v>
+      </c>
+      <c r="L25">
+        <v>30</v>
+      </c>
+      <c r="M25">
+        <v>30</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26">
+        <v>0.5851063829787234</v>
+      </c>
+      <c r="L26">
+        <v>55</v>
+      </c>
+      <c r="M26">
+        <v>55</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L27">
+        <v>28</v>
+      </c>
+      <c r="M27">
+        <v>28</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28">
+        <v>0.5509138381201044</v>
+      </c>
+      <c r="L28">
+        <v>211</v>
+      </c>
+      <c r="M28">
+        <v>211</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29">
+        <v>0.5319148936170213</v>
+      </c>
+      <c r="L29">
+        <v>25</v>
+      </c>
+      <c r="M29">
+        <v>25</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30">
+        <v>0.4764705882352941</v>
+      </c>
+      <c r="L30">
+        <v>162</v>
+      </c>
+      <c r="M30">
+        <v>162</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K25">
-        <v>0.6060606060606061</v>
-      </c>
-      <c r="L25">
-        <v>20</v>
-      </c>
-      <c r="M25">
-        <v>20</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K26">
-        <v>0.6</v>
-      </c>
-      <c r="L26">
-        <v>12</v>
-      </c>
-      <c r="M26">
-        <v>12</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27">
-        <v>0.6</v>
-      </c>
-      <c r="L27">
-        <v>15</v>
-      </c>
-      <c r="M27">
-        <v>15</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K28">
-        <v>0.5211267605633803</v>
-      </c>
-      <c r="L28">
-        <v>111</v>
-      </c>
-      <c r="M28">
-        <v>111</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29">
-        <v>0.5208333333333334</v>
-      </c>
-      <c r="L29">
-        <v>75</v>
-      </c>
-      <c r="M29">
-        <v>75</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K30">
-        <v>0.5</v>
-      </c>
-      <c r="L30">
-        <v>15</v>
-      </c>
-      <c r="M30">
-        <v>15</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="K31">
-        <v>0.4571428571428571</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L31">
         <v>16</v>
@@ -1753,21 +1603,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.4285714285714285</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L32">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1779,21 +1629,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.4186046511627907</v>
+        <v>0.4305084745762712</v>
       </c>
       <c r="L33">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="M33">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1805,21 +1655,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>75</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.4130434782608696</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="L34">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M34">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1831,21 +1681,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.36</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L35">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1857,21 +1707,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.28125</v>
+        <v>0.34375</v>
       </c>
       <c r="L36">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1883,21 +1733,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.2105263157894737</v>
+        <v>0.3263598326359833</v>
       </c>
       <c r="L37">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="M37">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1909,21 +1759,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>30</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>0.1891891891891892</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L38">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1935,7 +1785,111 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>30</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K39">
+        <v>0.2692307692307692</v>
+      </c>
+      <c r="L39">
+        <v>21</v>
+      </c>
+      <c r="M39">
+        <v>21</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K40">
+        <v>0.2285714285714286</v>
+      </c>
+      <c r="L40">
+        <v>16</v>
+      </c>
+      <c r="M40">
+        <v>16</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K41">
+        <v>0.006539000467071462</v>
+      </c>
+      <c r="L41">
+        <v>14</v>
+      </c>
+      <c r="M41">
+        <v>16</v>
+      </c>
+      <c r="N41">
+        <v>0.88</v>
+      </c>
+      <c r="O41">
+        <v>0.12</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K42">
+        <v>0.004830917874396135</v>
+      </c>
+      <c r="L42">
+        <v>15</v>
+      </c>
+      <c r="M42">
+        <v>17</v>
+      </c>
+      <c r="N42">
+        <v>0.88</v>
+      </c>
+      <c r="O42">
+        <v>0.12</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>3090</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,24 +43,24 @@
     <t>killed</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>forced</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -70,6 +70,9 @@
     <t>sc</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -79,91 +82,103 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>boost</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>friends</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>credit</t>
+    <t>help</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>help</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>energy</t>
   </si>
   <si>
     <t>important</t>
@@ -175,22 +190,13 @@
     <t>sure</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
 </sst>
 </file>
@@ -548,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,10 +562,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -638,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -667,13 +673,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -685,10 +691,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4">
         <v>0.9696969696969697</v>
@@ -717,13 +723,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8529411764705882</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -735,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>0.9473684210526315</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -759,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -767,13 +773,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6538461538461539</v>
+        <v>0.613013698630137</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -785,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>0.9322033898305084</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -809,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -817,13 +823,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6388888888888888</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -835,31 +841,31 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7">
+        <v>0.8839285714285714</v>
+      </c>
+      <c r="L7">
+        <v>99</v>
+      </c>
+      <c r="M7">
+        <v>99</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>13</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7">
-        <v>0.875</v>
-      </c>
-      <c r="L7">
-        <v>98</v>
-      </c>
-      <c r="M7">
-        <v>98</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -867,13 +873,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6198630136986302</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C8">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -885,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>0.8695652173913043</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -909,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -917,13 +923,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5172413793103449</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9">
+        <v>0.8292682926829268</v>
+      </c>
+      <c r="L9">
+        <v>68</v>
+      </c>
+      <c r="M9">
+        <v>68</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L9">
-        <v>30</v>
-      </c>
-      <c r="M9">
-        <v>30</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -967,13 +973,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1866666666666667</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -985,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.8292682926829268</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L10">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="M10">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1009,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1017,13 +1023,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1705426356589147</v>
+        <v>0.1763565891472868</v>
       </c>
       <c r="C11">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D11">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1035,19 +1041,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K11">
-        <v>0.8148148148148148</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1059,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1067,13 +1073,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1428571428571428</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1085,71 +1091,95 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K12">
+        <v>0.796875</v>
+      </c>
+      <c r="L12">
+        <v>102</v>
+      </c>
+      <c r="M12">
+        <v>102</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.1140939597315436</v>
+      </c>
+      <c r="C13">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>132</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13">
         <v>0.7931034482758621</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>46</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>46</v>
       </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="J13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13">
-        <v>0.78125</v>
-      </c>
-      <c r="L13">
-        <v>100</v>
-      </c>
-      <c r="M13">
-        <v>100</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L14">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1161,21 +1191,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K15">
-        <v>0.7727272727272727</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="M15">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1187,21 +1217,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K16">
-        <v>0.7583333333333333</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L16">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="M16">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1213,21 +1243,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K17">
-        <v>0.7407407407407407</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1239,21 +1269,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K18">
-        <v>0.7394366197183099</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L18">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1265,21 +1295,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19">
-        <v>0.7254901960784313</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L19">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M19">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1291,21 +1321,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K20">
-        <v>0.7222222222222222</v>
+        <v>0.71875</v>
       </c>
       <c r="L20">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="M20">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1317,21 +1347,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K21">
-        <v>0.7</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L21">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1343,21 +1373,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K22">
-        <v>0.6792452830188679</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L22">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1369,21 +1399,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K23">
-        <v>0.6190476190476191</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1395,21 +1425,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>0.6086956521739131</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1421,21 +1451,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1447,21 +1477,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>0.5851063829787234</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L26">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M26">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1473,21 +1503,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>0.5833333333333334</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L27">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1504,16 +1534,16 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>0.5509138381201044</v>
+        <v>0.54</v>
       </c>
       <c r="L28">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1525,21 +1555,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>172</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>0.5319148936170213</v>
+        <v>0.5039164490861618</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="M29">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1551,21 +1581,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>0.4764705882352941</v>
+        <v>0.5</v>
       </c>
       <c r="L30">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="M30">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1577,21 +1607,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>178</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31">
-        <v>0.4705882352941176</v>
+        <v>0.4647058823529412</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1603,21 +1633,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>18</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>0.449438202247191</v>
+        <v>0.4101694915254237</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="M32">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1629,21 +1659,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>49</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>0.4305084745762712</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="L33">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="M33">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1655,21 +1685,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>168</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34">
-        <v>0.3777777777777778</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1681,21 +1711,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>0.3561643835616438</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1707,21 +1737,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K36">
-        <v>0.34375</v>
+        <v>0.3514644351464435</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="M36">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1733,21 +1763,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>42</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K37">
-        <v>0.3263598326359833</v>
+        <v>0.35</v>
       </c>
       <c r="L37">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="M37">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1759,21 +1789,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>161</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K38">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1785,21 +1815,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K39">
-        <v>0.2692307692307692</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L39">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1811,21 +1841,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K40">
-        <v>0.2285714285714286</v>
+        <v>0.21875</v>
       </c>
       <c r="L40">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M40">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1837,59 +1867,85 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K41">
-        <v>0.006539000467071462</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="L41">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M41">
         <v>16</v>
       </c>
       <c r="N41">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>2127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K42">
-        <v>0.004830917874396135</v>
+        <v>0.01677852348993289</v>
       </c>
       <c r="L42">
         <v>15</v>
       </c>
       <c r="M42">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N42">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>3090</v>
+        <v>879</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K43">
+        <v>0.0144284128745838</v>
+      </c>
+      <c r="L43">
+        <v>13</v>
+      </c>
+      <c r="M43">
+        <v>13</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>888</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,21 +46,18 @@
     <t>crude</t>
   </si>
   <si>
-    <t>arrested</t>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -76,127 +73,148 @@
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>positive</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>healthy</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>boost</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>online</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -554,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +580,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -673,13 +691,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9117647058823529</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,31 +709,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>0.9491525423728814</v>
+      </c>
+      <c r="L4">
+        <v>56</v>
+      </c>
+      <c r="M4">
+        <v>56</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4">
-        <v>0.9696969696969697</v>
-      </c>
-      <c r="L4">
-        <v>32</v>
-      </c>
-      <c r="M4">
-        <v>32</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -723,37 +741,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8666666666666667</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>13</v>
       </c>
-      <c r="D5">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +791,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.613013698630137</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C6">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.8913043478260869</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6111111111111112</v>
+        <v>0.6061643835616438</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.8839285714285714</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +891,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5517241379310345</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.8518518518518519</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +941,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5384615384615384</v>
+        <v>0.2</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8292682926829268</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L9">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2266666666666667</v>
+        <v>0.189922480620155</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>58</v>
+        <v>418</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8181818181818182</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,13 +1041,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1763565891472868</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="C11">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>425</v>
+        <v>158</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,13 +1091,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1587301587301587</v>
+        <v>0.1140939597315436</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1091,69 +1109,45 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="L12">
+        <v>47</v>
+      </c>
+      <c r="M12">
+        <v>47</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K12">
-        <v>0.796875</v>
-      </c>
-      <c r="L12">
-        <v>102</v>
-      </c>
-      <c r="M12">
-        <v>102</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.1140939597315436</v>
-      </c>
-      <c r="C13">
-        <v>17</v>
-      </c>
-      <c r="D13">
-        <v>17</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>132</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1165,21 +1159,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0.7833333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1191,21 +1185,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.7452830188679245</v>
+        <v>0.765625</v>
       </c>
       <c r="L15">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="M15">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1217,21 +1211,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.7394366197183099</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L16">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="M16">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1243,21 +1237,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.7368421052631579</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1269,12 +1263,12 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K18">
         <v>0.7222222222222222</v>
@@ -1300,16 +1294,16 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="L19">
         <v>36</v>
       </c>
-      <c r="K19">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="L19">
-        <v>13</v>
-      </c>
       <c r="M19">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1321,21 +1315,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.71875</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L20">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="M20">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1347,21 +1341,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.7058823529411765</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L21">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="M21">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1373,21 +1367,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.6349206349206349</v>
+        <v>0.68125</v>
       </c>
       <c r="L22">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="M22">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1399,21 +1393,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.6296296296296297</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1425,21 +1419,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L24">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1451,21 +1445,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.5833333333333334</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1477,21 +1471,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.574468085106383</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L26">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="M26">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1503,21 +1497,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.574468085106383</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="M27">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1529,21 +1523,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.54</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L28">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="M28">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1555,21 +1549,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.5039164490861618</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L29">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1581,21 +1575,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>190</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="L30">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1607,21 +1601,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.4647058823529412</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L31">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="M31">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1633,21 +1627,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>182</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.4101694915254237</v>
+        <v>0.525</v>
       </c>
       <c r="L32">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="M32">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1659,21 +1653,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>174</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.4044943820224719</v>
+        <v>0.5221932114882507</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="M33">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1685,21 +1679,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>53</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.3939393939393939</v>
+        <v>0.5</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1711,21 +1705,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.3692307692307693</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M35">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1737,21 +1731,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.3514644351464435</v>
+        <v>0.4823529411764706</v>
       </c>
       <c r="L36">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="M36">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1763,21 +1757,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.35</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L37">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="M37">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1789,21 +1783,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>0.3333333333333333</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M38">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1815,21 +1809,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>0.3013698630136986</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L39">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1841,21 +1835,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K40">
-        <v>0.21875</v>
+        <v>0.4203389830508474</v>
       </c>
       <c r="L40">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="M40">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1867,21 +1861,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>50</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K41">
-        <v>0.2051282051282051</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1893,21 +1887,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K42">
-        <v>0.01677852348993289</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1919,33 +1913,215 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>879</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K43">
+        <v>0.3305439330543933</v>
+      </c>
+      <c r="L43">
+        <v>79</v>
+      </c>
+      <c r="M43">
+        <v>79</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K43">
-        <v>0.0144284128745838</v>
-      </c>
-      <c r="L43">
-        <v>13</v>
-      </c>
-      <c r="M43">
-        <v>13</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>888</v>
+      <c r="K44">
+        <v>0.296875</v>
+      </c>
+      <c r="L44">
+        <v>19</v>
+      </c>
+      <c r="M44">
+        <v>19</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K45">
+        <v>0.2285714285714286</v>
+      </c>
+      <c r="L45">
+        <v>16</v>
+      </c>
+      <c r="M45">
+        <v>16</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K46">
+        <v>0.03588516746411483</v>
+      </c>
+      <c r="L46">
+        <v>15</v>
+      </c>
+      <c r="M46">
+        <v>15</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K47">
+        <v>0.01789709172259508</v>
+      </c>
+      <c r="L47">
+        <v>16</v>
+      </c>
+      <c r="M47">
+        <v>16</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K48">
+        <v>0.01553829078801332</v>
+      </c>
+      <c r="L48">
+        <v>14</v>
+      </c>
+      <c r="M48">
+        <v>14</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K49">
+        <v>0.006535947712418301</v>
+      </c>
+      <c r="L49">
+        <v>14</v>
+      </c>
+      <c r="M49">
+        <v>15</v>
+      </c>
+      <c r="N49">
+        <v>0.93</v>
+      </c>
+      <c r="O49">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K50">
+        <v>0.006437077566784679</v>
+      </c>
+      <c r="L50">
+        <v>20</v>
+      </c>
+      <c r="M50">
+        <v>20</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>3087</v>
       </c>
     </row>
   </sheetData>
